--- a/xlsx/联合国开发计划署_intext.xlsx
+++ b/xlsx/联合国开发计划署_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
   <si>
     <t>联合国开发计划署</t>
   </si>
@@ -29,7 +29,7 @@
     <t>缩写</t>
   </si>
   <si>
-    <t>政策_政策_美國_联合国开发计划署</t>
+    <t>政策_政策_美国_联合国开发计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%BA%A6%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>最低度開發國家</t>
+    <t>最低度开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%A7%98%E4%B9%A6%E9%95%BF%E5%8A%9E%E5%85%AC%E5%8E%85</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>人類發展報告</t>
+    <t>人类发展报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%8E%AF%E5%A2%83%E5%9F%BA%E9%87%91</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國大會</t>
+    <t>联合国大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -167,31 +167,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
+    <t>联合国安全理事会否决权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B6%93%E6%BF%9F%E5%8F%8A%E7%A4%BE%E6%9C%83%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國經濟及社會理事會</t>
+    <t>联合国经济及社会理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國秘書處</t>
+    <t>联合国秘书处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際法院</t>
+    <t>国际法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%A8%97%E7%AE%A1%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國託管理事會</t>
+    <t>联合国讬管理事会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_specialized_agencies_of_the_United_Nations</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B3%A7%E9%A3%9F%E5%8F%8A%E8%BE%B2%E6%A5%AD%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國糧食及農業組織</t>
+    <t>联合国粮食及农业组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E4%BA%8B%E5%8B%99%E9%AB%98%E7%B4%9A%E5%B0%88%E5%93%A1%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國人權事務高級專員辦事處</t>
+    <t>联合国人权事务高级专员办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Capital_Development_Fund</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E6%B3%95%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國國際貿易法委員會</t>
+    <t>联合国国际贸易法委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%B4%B8%E6%98%93%E5%92%8C%E5%8F%91%E5%B1%95%E4%BC%9A%E8%AE%AE</t>
@@ -239,13 +239,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%96%8B%E7%99%BC%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國開發計劃署</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%92%B0%E5%A2%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國環境署</t>
+    <t>联合国环境署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNEP_OzonAction</t>
@@ -263,31 +260,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%8F%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>聯合國人口基金</t>
+    <t>联合国人口基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%B1%85%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國人居署</t>
+    <t>联合国人居署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%9B%A3%E6%B0%91%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國難民署</t>
+    <t>联合国难民署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國人權理事會</t>
+    <t>联合国人权理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%92%E7%AB%A5%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國兒童基金會</t>
+    <t>联合国儿童基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Institute_for_Disarmament_Research</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聯合國大學</t>
+    <t>联合国大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNU-OP</t>
@@ -353,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B3%A7%E9%A3%9F%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>世界糧食計劃署</t>
+    <t>世界粮食计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%84%9B%E6%BB%8B%E7%97%85%E8%81%AF%E5%90%88%E8%A6%8F%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國愛滋病聯合規劃署</t>
+    <t>联合国爱滋病联合规划署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Interregional_Crime_and_Justice_Research_Institute</t>
@@ -371,13 +368,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A4%BE%E6%9C%83%E7%99%BC%E5%B1%95%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>聯合國社會發展研究所</t>
+    <t>联合国社会发展研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際民用航空組織</t>
+    <t>国际民用航空组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Fund_for_Agricultural_Development</t>
@@ -389,25 +386,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%B7%A5%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際勞工組織</t>
+    <t>国际劳工组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B5%B7%E4%BA%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際海事組織</t>
+    <t>国际海事组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E5%B0%88%E9%96%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>政府間氣候變化專門委員會</t>
+    <t>政府间气候变化专门委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E4%BF%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際電信聯盟</t>
+    <t>国际电信联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Development_Assistance_Framework</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E8%82%B2%E3%80%81%E7%A7%91%E5%AD%B8%E5%8F%8A%E6%96%87%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教育、科學及文化組織</t>
+    <t>联合国教育、科学及文化组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Fund_for_International_Partnerships_(UNFIP)</t>
@@ -455,31 +452,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E5%9C%8B%E9%83%B5%E6%94%BF%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>萬國郵政聯盟</t>
+    <t>万国邮政联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%99%BA%E6%85%A7%E8%B2%A1%E7%94%A2%E6%AC%8A%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界智慧財產權組織</t>
+    <t>世界智慧财产权组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B0%A3%E8%B1%A1%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界氣象組織</t>
+    <t>世界气象组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE%E9%97%AE%E9%A2%98%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
@@ -491,13 +488,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E5%95%8F%E9%A1%8C%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>前南斯拉夫問題國際刑事法庭</t>
+    <t>前南斯拉夫问题国际刑事法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90%E5%B1%B1%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>獅子山特別法庭</t>
+    <t>狮子山特别法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Special_Panels_of_the_Dili_District_Court</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E9%81%93%E4%BA%8B%E5%8B%99%E5%8D%94%E8%AA%BF%E5%BB%B3</t>
   </si>
   <si>
-    <t>聯合國人道事務協調廳</t>
+    <t>联合国人道事务协调厅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_Disarmament_Affairs</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%AF%92%E5%93%81%E5%92%8C%E7%8A%AF%E7%BD%AA%E5%95%8F%E9%A1%8C%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>聯合國毒品和犯罪問題辦公室</t>
+    <t>联合国毒品和犯罪问题办公室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_the_High_Representative_for_the_Least_Developed_Countries,_Landlocked_Developing_Countries_and_Small_Island_Developing_States</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B8%BD%E9%83%A8%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>聯合國總部大樓</t>
+    <t>联合国总部大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%97%A5%E5%86%85%E7%93%A6%E5%8A%9E%E4%BA%8B%E5%A4%84</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A5%88%E6%B4%9B%E6%AF%94%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國奈洛比辦事處</t>
+    <t>联合国奈洛比办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_organizations_by_location</t>
@@ -635,25 +632,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%8D%80%E5%9F%9F%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>聯合國區域集團</t>
+    <t>联合国区域集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國安全理事會常任理事國</t>
+    <t>联合国安全理事会常任理事国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/European_Union_and_the_United_Nations</t>
@@ -671,13 +668,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際聯盟</t>
+    <t>国际联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%AD%A6%E5%AF%9F</t>
@@ -689,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%B1%E5%90%8C%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>聯合國共同宣言</t>
+    <t>联合国共同宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BB%B4%E6%8C%81%E5%92%8C%E5%B9%B3%E8%A1%8C%E5%8A%A8%E5%88%97%E8%A1%A8</t>
@@ -701,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%8C%81%E5%92%8C%E5%B9%B3</t>
   </si>
   <si>
-    <t>維持和平</t>
+    <t>维持和平</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_United_Nations_peacekeeping</t>
@@ -725,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國決議</t>
+    <t>联合国决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_resolutions_at_the_sixty-sixth_session_of_the_United_Nations_General_Assembly</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安全理事會決議</t>
+    <t>联合国安全理事会决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_Security_Council_resolutions_concerning_Cyprus</t>
@@ -791,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%9C%9D%E9%AE%AE%E7%9B%B8%E9%97%9C%E6%B1%BA%E8%AD%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國安全理事會朝鮮相關決議列表</t>
+    <t>联合国安全理事会朝鲜相关决议列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_the_UN_resolutions_concerning_Palestine</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>聯合國憲章</t>
+    <t>联合国宪章</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Global_Compact</t>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%80%9A%E8%A1%8C%E8%AD%89</t>
   </si>
   <si>
-    <t>聯合國通行證</t>
+    <t>联合国通行证</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Official_languages_of_the_United_Nations</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E6%95%A6%E6%A3%AE%E6%9E%97%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>布列敦森林體系</t>
+    <t>布列敦森林体系</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Delivering_as_One</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E9%AB%98%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>千禧高峰會</t>
+    <t>千禧高峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B9%B4%E5%8F%91%E5%B1%95%E7%9B%AE%E6%A0%87</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>聯合國改革</t>
+    <t>联合国改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%AE%AE%E4%BC%9A%E5%A4%A7%E4%BC%9A</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BA%AA%E5%BF%B5%E6%B4%BB%E5%8A%A8</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>聯合國日</t>
+    <t>联合国日</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_television_film_series</t>
@@ -971,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%96%87%E5%8C%96%E4%B8%AD%E7%9A%84%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>大眾文化中的聯合國</t>
+    <t>大众文化中的联合国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Comprehensive_Nuclear-Test-Ban_Treaty_Organization</t>
@@ -983,13 +980,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8E%9F%E5%AD%90%E8%83%BD%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>國際原子能機構</t>
+    <t>国际原子能机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際刑事法院</t>
+    <t>国际刑事法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B5%B7%E5%BA%95%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -1007,19 +1004,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%AD%A2%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>禁止化學武器組織</t>
+    <t>禁止化学武器组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1037,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1073,13 +1070,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2587,7 +2584,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2613,10 +2610,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2642,10 +2639,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2671,10 +2668,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2700,10 +2697,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2729,10 +2726,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2758,10 +2755,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2787,10 +2784,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2816,10 +2813,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2845,10 +2842,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2874,10 +2871,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2903,10 +2900,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2932,10 +2929,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2961,10 +2958,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2990,10 +2987,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3019,10 +3016,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3048,10 +3045,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3077,10 +3074,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3106,10 +3103,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3135,10 +3132,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3164,10 +3161,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3193,10 +3190,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3222,10 +3219,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3251,10 +3248,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3280,10 +3277,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3309,10 +3306,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3338,10 +3335,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3367,10 +3364,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3396,10 +3393,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3425,10 +3422,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3454,10 +3451,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3483,10 +3480,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3512,10 +3509,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3541,10 +3538,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3570,10 +3567,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3599,10 +3596,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3628,10 +3625,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3657,10 +3654,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3686,10 +3683,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3715,10 +3712,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3744,10 +3741,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3773,10 +3770,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3802,10 +3799,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3831,10 +3828,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3860,10 +3857,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3889,10 +3886,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3918,10 +3915,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3947,10 +3944,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3976,10 +3973,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4005,10 +4002,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4034,10 +4031,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4063,10 +4060,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4092,10 +4089,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4121,10 +4118,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4150,10 +4147,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4179,10 +4176,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4208,10 +4205,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4237,10 +4234,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4266,10 +4263,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4295,10 +4292,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4324,10 +4321,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4353,10 +4350,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4382,10 +4379,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4411,10 +4408,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4440,10 +4437,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4469,10 +4466,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4498,10 +4495,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4527,10 +4524,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4556,10 +4553,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" t="s">
         <v>207</v>
-      </c>
-      <c r="F108" t="s">
-        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4585,10 +4582,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>204</v>
+      </c>
+      <c r="F109" t="s">
         <v>205</v>
-      </c>
-      <c r="F109" t="s">
-        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4614,10 +4611,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
         <v>209</v>
-      </c>
-      <c r="F110" t="s">
-        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4643,10 +4640,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
         <v>211</v>
-      </c>
-      <c r="F111" t="s">
-        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4672,10 +4669,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4701,10 +4698,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4730,10 +4727,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4759,10 +4756,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4788,10 +4785,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4817,10 +4814,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4846,10 +4843,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4875,10 +4872,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4904,10 +4901,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4933,10 +4930,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4962,10 +4959,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4991,10 +4988,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5020,10 +5017,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5049,10 +5046,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5078,10 +5075,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5107,10 +5104,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5136,10 +5133,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5165,10 +5162,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5194,10 +5191,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5223,10 +5220,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5252,10 +5249,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5281,10 +5278,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5310,10 +5307,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5339,10 +5336,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5368,10 +5365,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5397,10 +5394,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
-      </c>
-      <c r="F137" t="s">
-        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5426,10 +5423,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
         <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5455,10 +5452,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5484,10 +5481,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
         <v>269</v>
-      </c>
-      <c r="F140" t="s">
-        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5513,10 +5510,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5542,10 +5539,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
-      </c>
-      <c r="F142" t="s">
-        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5571,10 +5568,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
-      </c>
-      <c r="F143" t="s">
-        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5600,10 +5597,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" t="s">
         <v>277</v>
-      </c>
-      <c r="F144" t="s">
-        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5629,10 +5626,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" t="s">
         <v>279</v>
-      </c>
-      <c r="F145" t="s">
-        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5658,10 +5655,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>280</v>
+      </c>
+      <c r="F146" t="s">
         <v>281</v>
-      </c>
-      <c r="F146" t="s">
-        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5687,10 +5684,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s">
         <v>283</v>
-      </c>
-      <c r="F147" t="s">
-        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5716,10 +5713,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148" t="s">
         <v>285</v>
-      </c>
-      <c r="F148" t="s">
-        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5745,10 +5742,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" t="s">
         <v>287</v>
-      </c>
-      <c r="F149" t="s">
-        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5774,10 +5771,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>288</v>
+      </c>
+      <c r="F150" t="s">
         <v>289</v>
-      </c>
-      <c r="F150" t="s">
-        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5803,10 +5800,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" t="s">
         <v>291</v>
-      </c>
-      <c r="F151" t="s">
-        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5832,10 +5829,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" t="s">
         <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5861,10 +5858,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>294</v>
+      </c>
+      <c r="F153" t="s">
         <v>295</v>
-      </c>
-      <c r="F153" t="s">
-        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5890,10 +5887,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>296</v>
+      </c>
+      <c r="F154" t="s">
         <v>297</v>
-      </c>
-      <c r="F154" t="s">
-        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5919,10 +5916,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" t="s">
         <v>299</v>
-      </c>
-      <c r="F155" t="s">
-        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5948,10 +5945,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F156" t="s">
         <v>301</v>
-      </c>
-      <c r="F156" t="s">
-        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5977,10 +5974,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" t="s">
         <v>303</v>
-      </c>
-      <c r="F157" t="s">
-        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6006,10 +6003,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>304</v>
+      </c>
+      <c r="F158" t="s">
         <v>305</v>
-      </c>
-      <c r="F158" t="s">
-        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6035,10 +6032,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>306</v>
+      </c>
+      <c r="F159" t="s">
         <v>307</v>
-      </c>
-      <c r="F159" t="s">
-        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6064,10 +6061,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" t="s">
         <v>309</v>
-      </c>
-      <c r="F160" t="s">
-        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6093,10 +6090,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>310</v>
+      </c>
+      <c r="F161" t="s">
         <v>311</v>
-      </c>
-      <c r="F161" t="s">
-        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6122,10 +6119,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>312</v>
+      </c>
+      <c r="F162" t="s">
         <v>313</v>
-      </c>
-      <c r="F162" t="s">
-        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6151,10 +6148,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>314</v>
+      </c>
+      <c r="F163" t="s">
         <v>315</v>
-      </c>
-      <c r="F163" t="s">
-        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6180,10 +6177,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>316</v>
+      </c>
+      <c r="F164" t="s">
         <v>317</v>
-      </c>
-      <c r="F164" t="s">
-        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6209,10 +6206,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>318</v>
+      </c>
+      <c r="F165" t="s">
         <v>319</v>
-      </c>
-      <c r="F165" t="s">
-        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6238,10 +6235,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>320</v>
+      </c>
+      <c r="F166" t="s">
         <v>321</v>
-      </c>
-      <c r="F166" t="s">
-        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6267,10 +6264,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
         <v>323</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6296,10 +6293,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
         <v>325</v>
-      </c>
-      <c r="F168" t="s">
-        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6325,10 +6322,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" t="s">
         <v>327</v>
-      </c>
-      <c r="F169" t="s">
-        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6354,10 +6351,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F170" t="s">
         <v>329</v>
-      </c>
-      <c r="F170" t="s">
-        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6383,10 +6380,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>330</v>
+      </c>
+      <c r="F171" t="s">
         <v>331</v>
-      </c>
-      <c r="F171" t="s">
-        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6412,10 +6409,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -6441,10 +6438,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6470,10 +6467,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>337</v>
-      </c>
-      <c r="F174" t="s">
-        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6499,10 +6496,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>338</v>
+      </c>
+      <c r="F175" t="s">
         <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6528,10 +6525,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
-      </c>
-      <c r="F176" t="s">
-        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6557,10 +6554,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>342</v>
+      </c>
+      <c r="F177" t="s">
         <v>343</v>
-      </c>
-      <c r="F177" t="s">
-        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6586,10 +6583,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" t="s">
         <v>345</v>
-      </c>
-      <c r="F178" t="s">
-        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6615,10 +6612,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" t="s">
         <v>347</v>
-      </c>
-      <c r="F179" t="s">
-        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6644,10 +6641,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>348</v>
+      </c>
+      <c r="F180" t="s">
         <v>349</v>
-      </c>
-      <c r="F180" t="s">
-        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6673,10 +6670,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>350</v>
+      </c>
+      <c r="F181" t="s">
         <v>351</v>
-      </c>
-      <c r="F181" t="s">
-        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6702,10 +6699,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>352</v>
+      </c>
+      <c r="F182" t="s">
         <v>353</v>
-      </c>
-      <c r="F182" t="s">
-        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6731,10 +6728,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>354</v>
+      </c>
+      <c r="F183" t="s">
         <v>355</v>
-      </c>
-      <c r="F183" t="s">
-        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
